--- a/Configs/Datas/EntityData.xlsx
+++ b/Configs/Datas/EntityData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -73,6 +73,9 @@
     <t>可以是对应的表内ID，也可以是对应简单输入参数</t>
   </si>
   <si>
+    <t>数据细节描述，所有Component默认为无初始参时ComponentDefine为0</t>
+  </si>
+  <si>
     <t>player</t>
   </si>
   <si>
@@ -85,22 +88,73 @@
     <t>TagComponent</t>
   </si>
   <si>
+    <t>Player = 0
+Enemy = 1
+Skill =2
+Terrain = 3
+Weapon = 4</t>
+  </si>
+  <si>
     <t>MoveComponent</t>
   </si>
   <si>
+    <t>与MoveData表对应</t>
+  </si>
+  <si>
     <t>GoComponent</t>
   </si>
   <si>
     <t>CollisionComponent</t>
   </si>
   <si>
+    <t>碰撞半径</t>
+  </si>
+  <si>
     <t>SpawnComponent</t>
   </si>
   <si>
+    <t>与SpawnData表对应</t>
+  </si>
+  <si>
     <t>InputComponent</t>
   </si>
   <si>
+    <t>CharacterComponent</t>
+  </si>
+  <si>
+    <t>Player = 0
+Enemy = 对应CharaterData表Id</t>
+  </si>
+  <si>
+    <t>WeaponComponent</t>
+  </si>
+  <si>
+    <t>SkillComponent</t>
+  </si>
+  <si>
+    <t>HitComponent</t>
+  </si>
+  <si>
     <t>weapon</t>
+  </si>
+  <si>
+    <t>parentEntityId 
+如果希望这个实体和某一个实体具有父子关系时设置对应ID</t>
+  </si>
+  <si>
+    <t>bullet</t>
+  </si>
+  <si>
+    <t>EffectComponent</t>
+  </si>
+  <si>
+    <t>挂了这个EffectComponent的话，不需要设置move和Collision</t>
+  </si>
+  <si>
+    <t>DestroyComponent</t>
+  </si>
+  <si>
+    <t>Monster</t>
   </si>
 </sst>
 </file>
@@ -716,7 +770,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -725,6 +779,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1037,10 +1094,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1049,6 +1106,7 @@
     <col min="4" max="4" width="19.75" customWidth="1"/>
     <col min="5" max="5" width="19.875" customWidth="1"/>
     <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="59.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1091,7 +1149,9 @@
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
@@ -1109,17 +1169,19 @@
         <v>13</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1130,80 +1192,94 @@
     </row>
     <row r="6" spans="4:5">
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="4:5">
+    <row r="7" ht="67.5" spans="4:7">
       <c r="D7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="4:5">
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7">
       <c r="D8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="4:5">
       <c r="D9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="10" spans="4:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7">
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="4:5">
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7">
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="4:5">
       <c r="D12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
-      <c r="B14">
-        <v>2001</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
+    <row r="13" ht="27" spans="4:7">
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5">
       <c r="D14" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="4:5">
+    </row>
+    <row r="15" spans="4:5">
       <c r="D15" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1211,10 +1287,214 @@
     </row>
     <row r="16" spans="4:5">
       <c r="D16" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E16">
-        <v>2001</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" ht="27" spans="2:7">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5">
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7">
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5">
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5">
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5">
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5">
+      <c r="D37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5">
+      <c r="D38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5">
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5">
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Datas/EntityData.xlsx
+++ b/Configs/Datas/EntityData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -104,12 +104,6 @@
     <t>GoComponent</t>
   </si>
   <si>
-    <t>CollisionComponent</t>
-  </si>
-  <si>
-    <t>碰撞半径</t>
-  </si>
-  <si>
     <t>SpawnComponent</t>
   </si>
   <si>
@@ -135,11 +129,22 @@
     <t>HitComponent</t>
   </si>
   <si>
+    <t>CollisionComponent</t>
+  </si>
+  <si>
+    <t>主动监听碰撞1 被动监听碰撞0</t>
+  </si>
+  <si>
+    <t>DestroyComponent</t>
+  </si>
+  <si>
+    <t>AnimatorComponent</t>
+  </si>
+  <si>
     <t>weapon</t>
   </si>
   <si>
-    <t>parentEntityId 
-如果希望这个实体和某一个实体具有父子关系时设置对应ID</t>
+    <t>ParentComponent</t>
   </si>
   <si>
     <t>bullet</t>
@@ -149,9 +154,6 @@
   </si>
   <si>
     <t>挂了这个EffectComponent的话，不需要设置move和Collision</t>
-  </si>
-  <si>
-    <t>DestroyComponent</t>
   </si>
   <si>
     <t>Monster</t>
@@ -1094,10 +1096,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1239,39 +1241,36 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="4:7">
+    <row r="11" spans="4:5">
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="27" spans="4:7">
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="4:5">
-      <c r="D12" t="s">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="27" spans="4:7">
+    </row>
+    <row r="13" spans="4:5">
       <c r="D13" t="s">
         <v>28</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="14" spans="4:5">
       <c r="D14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1279,171 +1278,174 @@
     </row>
     <row r="15" spans="4:5">
       <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7">
+      <c r="D16" t="s">
         <v>31</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="4:5">
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7">
+    </row>
+    <row r="17" spans="4:7">
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" ht="27" spans="2:7">
-      <c r="B18">
+    <row r="18" spans="4:7">
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
         <v>16</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>1</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5">
-      <c r="D19" t="s">
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="D21" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5">
-      <c r="D20" t="s">
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="D22" t="s">
         <v>18</v>
       </c>
-      <c r="E20">
+      <c r="E22">
         <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
       </c>
     </row>
     <row r="23" spans="4:5">
       <c r="D23" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:5">
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5">
+    <row r="25" spans="2:6">
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="4:5">
       <c r="D26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:7">
+    <row r="27" spans="4:5">
       <c r="D27" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="G27" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="4:5">
       <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5">
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7">
+      <c r="D30" t="s">
         <v>38</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
         <v>39</v>
-      </c>
-      <c r="D30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
       </c>
     </row>
     <row r="31" spans="4:5">
       <c r="D31" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:5">
-      <c r="D32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="2:6">
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="4:5">
       <c r="D34" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1451,7 +1453,7 @@
     </row>
     <row r="35" spans="4:5">
       <c r="D35" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1459,41 +1461,73 @@
     </row>
     <row r="36" spans="4:5">
       <c r="D36" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="4:5">
       <c r="D37" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E37">
-        <v>1002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="4:5">
       <c r="D38" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="4:5">
       <c r="D39" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="40" spans="4:5">
       <c r="D40" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5">
+      <c r="D41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5">
+      <c r="D42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5">
+      <c r="D43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5">
+      <c r="D44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44">
         <v>0</v>
       </c>
     </row>

--- a/Configs/Datas/EntityData.xlsx
+++ b/Configs/Datas/EntityData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>AnimatorComponent</t>
+  </si>
+  <si>
+    <t>ControllerComponent</t>
+  </si>
+  <si>
+    <t>CharacterDataComponent</t>
   </si>
   <si>
     <t>weapon</t>
@@ -1096,10 +1102,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48:E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1313,87 +1319,89 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="7:7">
+    <row r="19" spans="4:7">
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="2:7">
-      <c r="B20">
+    <row r="20" spans="4:7">
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="7:7">
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22">
         <v>2</v>
       </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
         <v>16</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <v>1</v>
       </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="4:5">
-      <c r="D21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5">
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22">
-        <v>4</v>
-      </c>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="4:5">
       <c r="D23" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
-      <c r="B25">
+    <row r="24" spans="4:5">
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27">
         <v>3</v>
       </c>
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
         <v>16</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="4:5">
-      <c r="D26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="4:5">
-      <c r="D27" t="s">
-        <v>18</v>
-      </c>
       <c r="E27">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="4:5">
       <c r="D28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1401,115 +1409,115 @@
     </row>
     <row r="29" spans="4:5">
       <c r="D29" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="4:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5">
       <c r="D30" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E30">
         <v>0</v>
-      </c>
-      <c r="G30" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="31" spans="4:5">
       <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7">
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33" t="s">
         <v>33</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33">
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35">
         <v>4</v>
       </c>
-      <c r="C33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" t="s">
         <v>16</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5">
-      <c r="D34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5">
-      <c r="D35" t="s">
-        <v>18</v>
-      </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="4:5">
       <c r="D36" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="4:5">
       <c r="D37" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="4:5">
       <c r="D38" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="4:5">
       <c r="D39" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E39">
-        <v>1002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="4:5">
       <c r="D40" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="4:5">
       <c r="D41" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="42" spans="4:5">
       <c r="D42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1517,7 +1525,7 @@
     </row>
     <row r="43" spans="4:5">
       <c r="D43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1525,9 +1533,41 @@
     </row>
     <row r="44" spans="4:5">
       <c r="D44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5">
+      <c r="D45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5">
+      <c r="D46" t="s">
         <v>33</v>
       </c>
-      <c r="E44">
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5">
+      <c r="D47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5">
+      <c r="D48" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48">
         <v>0</v>
       </c>
     </row>

--- a/Configs/Datas/EntityData.xlsx
+++ b/Configs/Datas/EntityData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -150,9 +150,6 @@
     <t>weapon</t>
   </si>
   <si>
-    <t>ParentComponent</t>
-  </si>
-  <si>
     <t>bullet</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>挂了这个EffectComponent的话，不需要设置move和Collision</t>
+  </si>
+  <si>
+    <t>BulletComponent</t>
   </si>
   <si>
     <t>Monster</t>
@@ -1102,10 +1102,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48:E48"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1374,72 +1374,72 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="4:5">
-      <c r="D25" t="s">
+    <row r="26" spans="2:6">
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
         <v>38</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>39</v>
-      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5">
       <c r="D27" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="4:5">
       <c r="D28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="4:5">
       <c r="D29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="4:5">
       <c r="D30" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="4:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7">
       <c r="D31" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="4:7">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5">
       <c r="D32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E32">
         <v>0</v>
-      </c>
-      <c r="G32" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="33" spans="4:5">
@@ -1450,42 +1450,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
-      <c r="B35">
+    <row r="34" spans="4:5">
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36">
         <v>4</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>42</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>16</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5">
-      <c r="D36" t="s">
-        <v>17</v>
-      </c>
       <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="4:5">
       <c r="D37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="4:5">
       <c r="D38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1493,39 +1493,39 @@
     </row>
     <row r="39" spans="4:5">
       <c r="D39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="4:5">
       <c r="D40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="4:5">
       <c r="D41" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E41">
-        <v>1002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="4:5">
       <c r="D42" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="43" spans="4:5">
       <c r="D43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="44" spans="4:5">
       <c r="D44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="45" spans="4:5">
       <c r="D45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="46" spans="4:5">
       <c r="D46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="47" spans="4:5">
       <c r="D47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1565,9 +1565,17 @@
     </row>
     <row r="48" spans="4:5">
       <c r="D48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5">
+      <c r="D49" t="s">
         <v>36</v>
       </c>
-      <c r="E48">
+      <c r="E49">
         <v>0</v>
       </c>
     </row>

--- a/Configs/Datas/EntityData.xlsx
+++ b/Configs/Datas/EntityData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>Monster</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>areateet</t>
   </si>
 </sst>
 </file>
@@ -1102,10 +1108,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49:E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1573,9 +1579,211 @@
     </row>
     <row r="49" spans="4:5">
       <c r="D49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5">
+      <c r="D50" t="s">
         <v>36</v>
       </c>
-      <c r="E49">
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5">
+      <c r="D53" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5">
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5">
+      <c r="D55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5">
+      <c r="D56" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5">
+      <c r="D57" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5">
+      <c r="D58" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5">
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5">
+      <c r="D62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="4:5">
+      <c r="D63" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5">
+      <c r="D64" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5">
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5">
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5">
+      <c r="D69" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5">
+      <c r="D70" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5">
+      <c r="D71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5">
+      <c r="D72" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5">
+      <c r="D73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5">
+      <c r="D74" t="s">
+        <v>33</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5">
+      <c r="D75" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75">
         <v>0</v>
       </c>
     </row>

--- a/Configs/Datas/EntityData.xlsx
+++ b/Configs/Datas/EntityData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Monster</t>
+  </si>
+  <si>
+    <t>FSMComponent</t>
   </si>
   <si>
     <t>area</t>
@@ -1108,10 +1111,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49:E49"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1587,29 +1590,29 @@
     </row>
     <row r="50" spans="4:5">
       <c r="D50" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5">
+      <c r="D51" t="s">
         <v>36</v>
       </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5">
-      <c r="B52">
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53">
         <v>5</v>
       </c>
-      <c r="C52" t="s">
-        <v>43</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="C53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" t="s">
         <v>16</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="4:5">
-      <c r="D53" t="s">
-        <v>22</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1617,23 +1620,23 @@
     </row>
     <row r="54" spans="4:5">
       <c r="D54" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="4:5">
       <c r="D55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="4:5">
       <c r="D56" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1641,7 +1644,7 @@
     </row>
     <row r="57" spans="4:5">
       <c r="D57" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1649,7 +1652,7 @@
     </row>
     <row r="58" spans="4:5">
       <c r="D58" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1657,45 +1660,45 @@
     </row>
     <row r="59" spans="4:5">
       <c r="D59" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5">
+      <c r="D60" t="s">
         <v>17</v>
       </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5">
-      <c r="B61">
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62">
         <v>6</v>
       </c>
-      <c r="C61" t="s">
-        <v>44</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="C62" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62" t="s">
         <v>39</v>
       </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="4:5">
-      <c r="D62" t="s">
-        <v>18</v>
-      </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="4:5">
       <c r="D63" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="4:5">
       <c r="D64" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1703,7 +1706,7 @@
     </row>
     <row r="65" spans="4:5">
       <c r="D65" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1711,29 +1714,29 @@
     </row>
     <row r="66" spans="4:5">
       <c r="D66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5">
+      <c r="D67" t="s">
         <v>17</v>
       </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5">
-      <c r="B68">
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69">
         <v>7</v>
       </c>
-      <c r="C68" t="s">
-        <v>43</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="C69" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" t="s">
         <v>16</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="4:5">
-      <c r="D69" t="s">
-        <v>22</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1741,23 +1744,23 @@
     </row>
     <row r="70" spans="4:5">
       <c r="D70" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="4:5">
       <c r="D71" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="4:5">
       <c r="D72" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1765,7 +1768,7 @@
     </row>
     <row r="73" spans="4:5">
       <c r="D73" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1773,7 +1776,7 @@
     </row>
     <row r="74" spans="4:5">
       <c r="D74" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1781,9 +1784,17 @@
     </row>
     <row r="75" spans="4:5">
       <c r="D75" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5">
+      <c r="D76" t="s">
         <v>17</v>
       </c>
-      <c r="E75">
+      <c r="E76">
         <v>0</v>
       </c>
     </row>

--- a/Configs/Datas/EntityData.xlsx
+++ b/Configs/Datas/EntityData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12525"/>
+    <workbookView windowWidth="16810" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>areateet</t>
+  </si>
+  <si>
+    <t>healthItem</t>
   </si>
 </sst>
 </file>
@@ -1111,19 +1114,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="19.875" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="59.125" customWidth="1"/>
+    <col min="3" max="3" width="18.6272727272727" customWidth="1"/>
+    <col min="4" max="4" width="19.7545454545455" customWidth="1"/>
+    <col min="5" max="5" width="19.8727272727273" customWidth="1"/>
+    <col min="6" max="6" width="14.8727272727273" customWidth="1"/>
+    <col min="7" max="7" width="59.1272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1215,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="67.5" spans="4:7">
+    <row r="7" ht="70" spans="4:7">
       <c r="D7" t="s">
         <v>18</v>
       </c>
@@ -1264,7 +1267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="27" spans="4:7">
+    <row r="12" ht="28" spans="4:7">
       <c r="D12" t="s">
         <v>26</v>
       </c>
@@ -1795,6 +1798,84 @@
         <v>17</v>
       </c>
       <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>46</v>
+      </c>
+      <c r="D78" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5">
+      <c r="D79" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5">
+      <c r="D80" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5">
+      <c r="D81" t="s">
+        <v>31</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5">
+      <c r="D82" t="s">
+        <v>39</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5">
+      <c r="D83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5">
+      <c r="D84" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5">
+      <c r="D85" t="s">
+        <v>41</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5">
+      <c r="D86" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86">
         <v>0</v>
       </c>
     </row>
@@ -1814,7 +1895,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1831,7 +1912,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/EntityData.xlsx
+++ b/Configs/Datas/EntityData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>healthItem</t>
+  </si>
+  <si>
+    <t>canDestroyTerrin</t>
   </si>
 </sst>
 </file>
@@ -1114,10 +1117,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96:E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1876,6 +1879,84 @@
         <v>17</v>
       </c>
       <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s">
+        <v>47</v>
+      </c>
+      <c r="D88" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5">
+      <c r="D89" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="4:5">
+      <c r="D90" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="4:5">
+      <c r="D91" t="s">
+        <v>31</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="4:5">
+      <c r="D92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="4:5">
+      <c r="D93" t="s">
+        <v>33</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="4:5">
+      <c r="D94" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="4:5">
+      <c r="D95" t="s">
+        <v>30</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="4:5">
+      <c r="D96" t="s">
+        <v>41</v>
+      </c>
+      <c r="E96">
         <v>0</v>
       </c>
     </row>

--- a/Configs/Datas/EntityData.xlsx
+++ b/Configs/Datas/EntityData.xlsx
@@ -4,32 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16810" windowHeight="7230"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -179,16 +166,22 @@
   <si>
     <t>canDestroyTerrin</t>
   </si>
+  <si>
+    <t>canInteractive</t>
+  </si>
+  <si>
+    <t>InteractiveComponent</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -196,6 +189,41 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,8 +243,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,23 +298,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,7 +307,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,49 +335,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -358,12 +351,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -376,19 +501,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,139 +519,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,6 +554,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -580,21 +588,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -605,6 +598,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,164 +636,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -809,52 +802,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1117,19 +1110,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96:E96"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="18.6272727272727" customWidth="1"/>
-    <col min="4" max="4" width="19.7545454545455" customWidth="1"/>
-    <col min="5" max="5" width="19.8727272727273" customWidth="1"/>
-    <col min="6" max="6" width="14.8727272727273" customWidth="1"/>
-    <col min="7" max="7" width="59.1272727272727" customWidth="1"/>
+    <col min="3" max="3" width="18.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="19.8703703703704" customWidth="1"/>
+    <col min="6" max="6" width="14.8703703703704" customWidth="1"/>
+    <col min="7" max="7" width="59.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1221,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="70" spans="4:7">
+    <row r="7" ht="72" spans="4:7">
       <c r="D7" t="s">
         <v>18</v>
       </c>
@@ -1270,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="28" spans="4:7">
+    <row r="12" ht="28.8" spans="4:7">
       <c r="D12" t="s">
         <v>26</v>
       </c>
@@ -1352,114 +1345,103 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="7:7">
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22">
+    <row r="23" spans="2:7">
+      <c r="B23">
         <v>2</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>37</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>16</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>1</v>
       </c>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="4:5">
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="4:5">
       <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25" t="s">
         <v>18</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
-      <c r="B26">
+    <row r="27" spans="2:6">
+      <c r="B27">
         <v>3</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>38</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>16</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="4:5">
-      <c r="D27" t="s">
-        <v>22</v>
-      </c>
       <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="4:5">
       <c r="D28" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="4:5">
       <c r="D29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="4:5">
       <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5">
+      <c r="D31" t="s">
         <v>31</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="4:7">
-      <c r="D31" t="s">
+    <row r="32" spans="4:7">
+      <c r="D32" t="s">
         <v>39</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="4:5">
-      <c r="D32" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
       </c>
     </row>
     <row r="33" spans="4:5">
       <c r="D33" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1467,48 +1449,48 @@
     </row>
     <row r="34" spans="4:5">
       <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35" t="s">
         <v>17</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36">
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37">
         <v>4</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>42</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>16</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5">
-      <c r="D37" t="s">
-        <v>17</v>
-      </c>
       <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="4:5">
       <c r="D38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="4:5">
       <c r="D39" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1516,39 +1498,39 @@
     </row>
     <row r="40" spans="4:5">
       <c r="D40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="4:5">
       <c r="D41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="4:5">
       <c r="D42" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E42">
-        <v>1002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="4:5">
       <c r="D43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="44" spans="4:5">
       <c r="D44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1556,7 +1538,7 @@
     </row>
     <row r="45" spans="4:5">
       <c r="D45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1564,7 +1546,7 @@
     </row>
     <row r="46" spans="4:5">
       <c r="D46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1572,7 +1554,7 @@
     </row>
     <row r="47" spans="4:5">
       <c r="D47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1580,7 +1562,7 @@
     </row>
     <row r="48" spans="4:5">
       <c r="D48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1588,7 +1570,7 @@
     </row>
     <row r="49" spans="4:5">
       <c r="D49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1596,7 +1578,7 @@
     </row>
     <row r="50" spans="4:5">
       <c r="D50" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1604,45 +1586,37 @@
     </row>
     <row r="51" spans="4:5">
       <c r="D51" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5">
+      <c r="D52" t="s">
         <v>36</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5">
-      <c r="B53">
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55">
         <v>5</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C55" t="s">
         <v>44</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D55" t="s">
         <v>16</v>
       </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="4:5">
-      <c r="D54" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="4:5">
-      <c r="D55" t="s">
-        <v>18</v>
-      </c>
       <c r="E55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="4:5">
       <c r="D56" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1650,15 +1624,15 @@
     </row>
     <row r="57" spans="4:5">
       <c r="D57" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="4:5">
       <c r="D58" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1666,7 +1640,7 @@
     </row>
     <row r="59" spans="4:5">
       <c r="D59" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1674,37 +1648,37 @@
     </row>
     <row r="60" spans="4:5">
       <c r="D60" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5">
+      <c r="D61" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5">
+      <c r="D62" t="s">
         <v>17</v>
       </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5">
-      <c r="B62">
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64">
         <v>6</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C64" t="s">
         <v>45</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D64" t="s">
         <v>39</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="4:5">
-      <c r="D63" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="4:5">
-      <c r="D64" t="s">
-        <v>22</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1712,15 +1686,15 @@
     </row>
     <row r="65" spans="4:5">
       <c r="D65" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="4:5">
       <c r="D66" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1728,45 +1702,45 @@
     </row>
     <row r="67" spans="4:5">
       <c r="D67" t="s">
+        <v>33</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5">
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5">
+      <c r="D69" t="s">
         <v>17</v>
       </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5">
-      <c r="B69">
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71">
         <v>7</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C71" t="s">
         <v>44</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D71" t="s">
         <v>16</v>
       </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="4:5">
-      <c r="D70" t="s">
-        <v>22</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="4:5">
-      <c r="D71" t="s">
-        <v>18</v>
-      </c>
       <c r="E71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="4:5">
       <c r="D72" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1774,15 +1748,15 @@
     </row>
     <row r="73" spans="4:5">
       <c r="D73" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="4:5">
       <c r="D74" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1790,7 +1764,7 @@
     </row>
     <row r="75" spans="4:5">
       <c r="D75" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1798,45 +1772,45 @@
     </row>
     <row r="76" spans="4:5">
       <c r="D76" t="s">
+        <v>41</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5">
+      <c r="D77" t="s">
+        <v>33</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5">
+      <c r="D78" t="s">
         <v>17</v>
       </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5">
-      <c r="B78">
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80">
         <v>8</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C80" t="s">
         <v>46</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D80" t="s">
         <v>16</v>
       </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="4:5">
-      <c r="D79" t="s">
-        <v>22</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="4:5">
-      <c r="D80" t="s">
-        <v>23</v>
-      </c>
       <c r="E80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="4:5">
       <c r="D81" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1844,23 +1818,23 @@
     </row>
     <row r="82" spans="4:5">
       <c r="D82" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="4:5">
       <c r="D83" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="4:5">
       <c r="D84" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1868,53 +1842,53 @@
     </row>
     <row r="85" spans="4:5">
       <c r="D85" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="4:5">
       <c r="D86" t="s">
+        <v>33</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5">
+      <c r="D87" t="s">
+        <v>41</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5">
+      <c r="D88" t="s">
         <v>17</v>
       </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5">
-      <c r="B88">
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90">
         <v>9</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C90" t="s">
         <v>47</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D90" t="s">
         <v>16</v>
       </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="4:5">
-      <c r="D89" t="s">
-        <v>22</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="4:5">
-      <c r="D90" t="s">
-        <v>23</v>
-      </c>
       <c r="E90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="4:5">
       <c r="D91" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1922,7 +1896,7 @@
     </row>
     <row r="92" spans="4:5">
       <c r="D92" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E92">
         <v>2</v>
@@ -1930,7 +1904,7 @@
     </row>
     <row r="93" spans="4:5">
       <c r="D93" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1938,15 +1912,15 @@
     </row>
     <row r="94" spans="4:5">
       <c r="D94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="4:5">
       <c r="D95" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -1954,9 +1928,95 @@
     </row>
     <row r="96" spans="4:5">
       <c r="D96" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5">
+      <c r="D97" t="s">
+        <v>30</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="4:5">
+      <c r="D98" t="s">
         <v>41</v>
       </c>
-      <c r="E96">
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100" t="s">
+        <v>48</v>
+      </c>
+      <c r="D100" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="4:5">
+      <c r="D101" t="s">
+        <v>22</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="4:5">
+      <c r="D102" t="s">
+        <v>31</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="4:5">
+      <c r="D103" t="s">
+        <v>33</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="4:5">
+      <c r="D104" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="4:5">
+      <c r="D105" t="s">
+        <v>26</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="4:5">
+      <c r="D106" t="s">
+        <v>49</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="4:5">
+      <c r="D107" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107">
         <v>0</v>
       </c>
     </row>
@@ -1976,7 +2036,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1993,7 +2053,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/EntityData.xlsx
+++ b/Configs/Datas/EntityData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -179,9 +179,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -193,14 +193,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,8 +206,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,7 +230,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,17 +245,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,13 +261,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,6 +291,21 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -321,16 +329,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,19 +345,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,163 +459,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,6 +536,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -554,21 +584,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -583,6 +598,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,30 +636,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -644,10 +644,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,31 +656,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,100 +689,100 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1110,10 +1110,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2018,6 +2018,14 @@
       </c>
       <c r="E107">
         <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="4:5">
+      <c r="D108" t="s">
+        <v>23</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Datas/EntityData.xlsx
+++ b/Configs/Datas/EntityData.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="24045" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -160,28 +173,16 @@
   <si>
     <t>areateet</t>
   </si>
-  <si>
-    <t>healthItem</t>
-  </si>
-  <si>
-    <t>canDestroyTerrin</t>
-  </si>
-  <si>
-    <t>canInteractive</t>
-  </si>
-  <si>
-    <t>InteractiveComponent</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -192,6 +193,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -199,8 +263,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,99 +288,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,20 +302,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -345,19 +346,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,7 +400,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,19 +478,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,127 +508,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,36 +537,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -602,11 +573,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,6 +603,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -641,148 +642,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -802,52 +803,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1110,19 +1111,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="18.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="19.8703703703704" customWidth="1"/>
-    <col min="6" max="6" width="14.8703703703704" customWidth="1"/>
-    <col min="7" max="7" width="59.1296296296296" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="59.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1214,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="72" spans="4:7">
+    <row r="7" ht="67.5" spans="4:7">
       <c r="D7" t="s">
         <v>18</v>
       </c>
@@ -1263,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="28.8" spans="4:7">
+    <row r="12" ht="27" spans="4:7">
       <c r="D12" t="s">
         <v>26</v>
       </c>
@@ -1345,103 +1346,114 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="23" spans="2:7">
-      <c r="B23">
+    <row r="21" spans="7:7">
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22">
         <v>2</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C22" t="s">
         <v>37</v>
       </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="4:5">
       <c r="D23" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="4:5">
       <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27" t="s">
         <v>22</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5">
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s">
-        <v>16</v>
-      </c>
       <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="4:5">
       <c r="D28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="4:5">
       <c r="D29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="4:5">
       <c r="D30" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="4:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7">
       <c r="D31" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="4:7">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5">
       <c r="D32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E32">
         <v>0</v>
-      </c>
-      <c r="G32" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="33" spans="4:5">
       <c r="D33" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1449,48 +1461,48 @@
     </row>
     <row r="34" spans="4:5">
       <c r="D34" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:5">
-      <c r="D35" t="s">
+    <row r="36" spans="2:6">
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5">
+      <c r="D37" t="s">
         <v>17</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37">
-        <v>4</v>
-      </c>
-      <c r="C37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" t="s">
-        <v>16</v>
-      </c>
       <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="4:5">
       <c r="D38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="4:5">
       <c r="D39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1498,39 +1510,39 @@
     </row>
     <row r="40" spans="4:5">
       <c r="D40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="4:5">
       <c r="D41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="4:5">
       <c r="D42" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="43" spans="4:5">
       <c r="D43" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E43">
-        <v>1002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="4:5">
       <c r="D44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1538,7 +1550,7 @@
     </row>
     <row r="45" spans="4:5">
       <c r="D45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1546,7 +1558,7 @@
     </row>
     <row r="46" spans="4:5">
       <c r="D46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1554,7 +1566,7 @@
     </row>
     <row r="47" spans="4:5">
       <c r="D47" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1562,7 +1574,7 @@
     </row>
     <row r="48" spans="4:5">
       <c r="D48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1570,7 +1582,7 @@
     </row>
     <row r="49" spans="4:5">
       <c r="D49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1578,7 +1590,7 @@
     </row>
     <row r="50" spans="4:5">
       <c r="D50" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1586,37 +1598,45 @@
     </row>
     <row r="51" spans="4:5">
       <c r="D51" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="4:5">
-      <c r="D52" t="s">
-        <v>36</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5">
-      <c r="B55">
+    <row r="53" spans="2:5">
+      <c r="B53">
         <v>5</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C53" t="s">
         <v>44</v>
       </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5">
+      <c r="D54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5">
       <c r="D55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="4:5">
       <c r="D56" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1624,15 +1644,15 @@
     </row>
     <row r="57" spans="4:5">
       <c r="D57" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="4:5">
       <c r="D58" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1640,7 +1660,7 @@
     </row>
     <row r="59" spans="4:5">
       <c r="D59" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1648,37 +1668,37 @@
     </row>
     <row r="60" spans="4:5">
       <c r="D60" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="4:5">
-      <c r="D61" t="s">
-        <v>33</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="4:5">
+    <row r="62" spans="2:5">
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>45</v>
+      </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:5">
-      <c r="B64">
-        <v>6</v>
-      </c>
-      <c r="C64" t="s">
-        <v>45</v>
-      </c>
+    <row r="63" spans="4:5">
+      <c r="D63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5">
       <c r="D64" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1686,15 +1706,15 @@
     </row>
     <row r="65" spans="4:5">
       <c r="D65" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="4:5">
       <c r="D66" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1702,45 +1722,45 @@
     </row>
     <row r="67" spans="4:5">
       <c r="D67" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="4:5">
-      <c r="D68" t="s">
+    <row r="69" spans="2:5">
+      <c r="B69">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" t="s">
         <v>16</v>
       </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="4:5">
-      <c r="D69" t="s">
-        <v>17</v>
-      </c>
       <c r="E69">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:5">
-      <c r="B71">
-        <v>7</v>
-      </c>
-      <c r="C71" t="s">
-        <v>44</v>
-      </c>
+    <row r="70" spans="4:5">
+      <c r="D70" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5">
       <c r="D71" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="4:5">
       <c r="D72" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1748,15 +1768,15 @@
     </row>
     <row r="73" spans="4:5">
       <c r="D73" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="4:5">
       <c r="D74" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1764,7 +1784,7 @@
     </row>
     <row r="75" spans="4:5">
       <c r="D75" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1772,260 +1792,10 @@
     </row>
     <row r="76" spans="4:5">
       <c r="D76" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E76">
         <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="4:5">
-      <c r="D77" t="s">
-        <v>33</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="4:5">
-      <c r="D78" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5">
-      <c r="B80">
-        <v>8</v>
-      </c>
-      <c r="C80" t="s">
-        <v>46</v>
-      </c>
-      <c r="D80" t="s">
-        <v>16</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="4:5">
-      <c r="D81" t="s">
-        <v>22</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="4:5">
-      <c r="D82" t="s">
-        <v>23</v>
-      </c>
-      <c r="E82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="4:5">
-      <c r="D83" t="s">
-        <v>31</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="4:5">
-      <c r="D84" t="s">
-        <v>39</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="4:5">
-      <c r="D85" t="s">
-        <v>18</v>
-      </c>
-      <c r="E85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="4:5">
-      <c r="D86" t="s">
-        <v>33</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="4:5">
-      <c r="D87" t="s">
-        <v>41</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="4:5">
-      <c r="D88" t="s">
-        <v>17</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5">
-      <c r="B90">
-        <v>9</v>
-      </c>
-      <c r="C90" t="s">
-        <v>47</v>
-      </c>
-      <c r="D90" t="s">
-        <v>16</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="4:5">
-      <c r="D91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="4:5">
-      <c r="D92" t="s">
-        <v>23</v>
-      </c>
-      <c r="E92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="4:5">
-      <c r="D93" t="s">
-        <v>31</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="4:5">
-      <c r="D94" t="s">
-        <v>18</v>
-      </c>
-      <c r="E94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="4:5">
-      <c r="D95" t="s">
-        <v>33</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="4:5">
-      <c r="D96" t="s">
-        <v>17</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="4:5">
-      <c r="D97" t="s">
-        <v>30</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="4:5">
-      <c r="D98" t="s">
-        <v>41</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5">
-      <c r="B100">
-        <v>10</v>
-      </c>
-      <c r="C100" t="s">
-        <v>48</v>
-      </c>
-      <c r="D100" t="s">
-        <v>16</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="4:5">
-      <c r="D101" t="s">
-        <v>22</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="4:5">
-      <c r="D102" t="s">
-        <v>31</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="4:5">
-      <c r="D103" t="s">
-        <v>33</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="4:5">
-      <c r="D104" t="s">
-        <v>18</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="4:5">
-      <c r="D105" t="s">
-        <v>26</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="4:5">
-      <c r="D106" t="s">
-        <v>49</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="4:5">
-      <c r="D107" t="s">
-        <v>18</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="4:5">
-      <c r="D108" t="s">
-        <v>23</v>
-      </c>
-      <c r="E108">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2044,7 +1814,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2061,7 +1831,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/EntityData.xlsx
+++ b/Configs/Datas/EntityData.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12525"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -1111,19 +1111,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77:E77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="19.875" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="59.125" customWidth="1"/>
+    <col min="3" max="3" width="18.6272727272727" customWidth="1"/>
+    <col min="4" max="4" width="19.7545454545455" customWidth="1"/>
+    <col min="5" max="5" width="19.8727272727273" customWidth="1"/>
+    <col min="6" max="6" width="14.8727272727273" customWidth="1"/>
+    <col min="7" max="7" width="59.1272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="67.5" spans="4:7">
+    <row r="7" ht="70" spans="4:7">
       <c r="D7" t="s">
         <v>18</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="27" spans="4:7">
+    <row r="12" ht="28" spans="4:7">
       <c r="D12" t="s">
         <v>26</v>
       </c>
@@ -1796,6 +1796,14 @@
       </c>
       <c r="E76">
         <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5">
+      <c r="D77" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1814,7 +1822,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1831,7 +1839,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/EntityData.xlsx
+++ b/Configs/Datas/EntityData.xlsx
@@ -4,32 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -173,15 +160,21 @@
   <si>
     <t>areateet</t>
   </si>
+  <si>
+    <t>interaction</t>
+  </si>
+  <si>
+    <t>InteractiveComponent</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -193,9 +186,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,6 +259,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,14 +282,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -250,38 +303,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,14 +311,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,28 +324,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,25 +339,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,12 +489,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -394,139 +501,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,6 +530,62 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -573,51 +622,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -626,164 +630,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -803,52 +796,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1111,19 +1104,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77:E77"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="18.6272727272727" customWidth="1"/>
-    <col min="4" max="4" width="19.7545454545455" customWidth="1"/>
-    <col min="5" max="5" width="19.8727272727273" customWidth="1"/>
-    <col min="6" max="6" width="14.8727272727273" customWidth="1"/>
-    <col min="7" max="7" width="59.1272727272727" customWidth="1"/>
+    <col min="3" max="3" width="18.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="19.8703703703704" customWidth="1"/>
+    <col min="6" max="6" width="14.8703703703704" customWidth="1"/>
+    <col min="7" max="7" width="59.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1215,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="70" spans="4:7">
+    <row r="7" ht="72" spans="4:7">
       <c r="D7" t="s">
         <v>18</v>
       </c>
@@ -1264,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="28" spans="4:7">
+    <row r="12" ht="28.8" spans="4:7">
       <c r="D12" t="s">
         <v>26</v>
       </c>
@@ -1804,6 +1797,68 @@
       </c>
       <c r="E77">
         <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>46</v>
+      </c>
+      <c r="D79" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5">
+      <c r="D80" t="s">
+        <v>22</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5">
+      <c r="D81" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5">
+      <c r="D82" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5">
+      <c r="D83" t="s">
+        <v>47</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5">
+      <c r="D84" t="s">
+        <v>26</v>
+      </c>
+      <c r="E84">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5">
+      <c r="D85" t="s">
+        <v>31</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1822,7 +1877,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1839,7 +1894,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/EntityData.xlsx
+++ b/Configs/Datas/EntityData.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -166,15 +179,21 @@
   <si>
     <t>InteractiveComponent</t>
   </si>
+  <si>
+    <t>trap</t>
+  </si>
+  <si>
+    <t>TrapComponent</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -186,69 +205,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,14 +218,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -282,6 +233,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -303,7 +262,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,6 +301,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,7 +322,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,6 +358,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -351,175 +382,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,62 +549,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -622,6 +585,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -630,153 +638,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -796,52 +815,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1104,19 +1123,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="18.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="18.6333333333333" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="19.8703703703704" customWidth="1"/>
-    <col min="6" max="6" width="14.8703703703704" customWidth="1"/>
-    <col min="7" max="7" width="59.1296296296296" customWidth="1"/>
+    <col min="5" max="5" width="19.8666666666667" customWidth="1"/>
+    <col min="6" max="6" width="14.8666666666667" customWidth="1"/>
+    <col min="7" max="7" width="59.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1208,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="72" spans="4:7">
+    <row r="7" ht="67.5" spans="4:7">
       <c r="D7" t="s">
         <v>18</v>
       </c>
@@ -1257,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="28.8" spans="4:7">
+    <row r="12" ht="27" spans="4:7">
       <c r="D12" t="s">
         <v>26</v>
       </c>
@@ -1858,6 +1877,68 @@
         <v>31</v>
       </c>
       <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s">
+        <v>48</v>
+      </c>
+      <c r="D87" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5">
+      <c r="D88" t="s">
+        <v>22</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5">
+      <c r="D89" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="4:5">
+      <c r="D90" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="4:5">
+      <c r="D91" t="s">
+        <v>49</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="4:5">
+      <c r="D92" t="s">
+        <v>26</v>
+      </c>
+      <c r="E92">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="93" spans="4:5">
+      <c r="D93" t="s">
+        <v>31</v>
+      </c>
+      <c r="E93">
         <v>0</v>
       </c>
     </row>
@@ -1874,10 +1955,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1891,10 +1972,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/EntityData.xlsx
+++ b/Configs/Datas/EntityData.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -166,15 +179,24 @@
   <si>
     <t>InteractiveComponent</t>
   </si>
+  <si>
+    <t>trap</t>
+  </si>
+  <si>
+    <t>TrapComponent</t>
+  </si>
+  <si>
+    <t>canDestroy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -186,69 +208,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,14 +221,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -282,6 +236,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -303,7 +265,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,6 +304,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,7 +325,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,6 +361,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -351,175 +385,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,62 +552,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -622,6 +588,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -630,153 +641,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -796,52 +818,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1104,19 +1126,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="18.6296296296296" customWidth="1"/>
-    <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="19.8703703703704" customWidth="1"/>
-    <col min="6" max="6" width="14.8703703703704" customWidth="1"/>
-    <col min="7" max="7" width="59.1296296296296" customWidth="1"/>
+    <col min="3" max="3" width="18.6363636363636" customWidth="1"/>
+    <col min="4" max="4" width="19.7545454545455" customWidth="1"/>
+    <col min="5" max="5" width="19.8636363636364" customWidth="1"/>
+    <col min="6" max="6" width="14.8636363636364" customWidth="1"/>
+    <col min="7" max="7" width="59.1363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1208,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="72" spans="4:7">
+    <row r="7" ht="70" spans="4:7">
       <c r="D7" t="s">
         <v>18</v>
       </c>
@@ -1257,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="28.8" spans="4:7">
+    <row r="12" ht="28" spans="4:7">
       <c r="D12" t="s">
         <v>26</v>
       </c>
@@ -1858,6 +1880,154 @@
         <v>31</v>
       </c>
       <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s">
+        <v>48</v>
+      </c>
+      <c r="D87" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5">
+      <c r="D88" t="s">
+        <v>22</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5">
+      <c r="D89" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="4:5">
+      <c r="D90" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="4:5">
+      <c r="D91" t="s">
+        <v>49</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="4:5">
+      <c r="D92" t="s">
+        <v>26</v>
+      </c>
+      <c r="E92">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="93" spans="4:5">
+      <c r="D93" t="s">
+        <v>31</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="C95" t="s">
+        <v>50</v>
+      </c>
+      <c r="D95" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="4:5">
+      <c r="D96" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5">
+      <c r="D97" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="4:5">
+      <c r="D98" t="s">
+        <v>23</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5">
+      <c r="D99" t="s">
+        <v>33</v>
+      </c>
+      <c r="E99">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5">
+      <c r="D100" t="s">
+        <v>26</v>
+      </c>
+      <c r="E100">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="101" spans="4:5">
+      <c r="D101" t="s">
+        <v>31</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="4:5">
+      <c r="D102" t="s">
+        <v>30</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="4:5">
+      <c r="D103" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="4:5">
+      <c r="D104" t="s">
+        <v>34</v>
+      </c>
+      <c r="E104">
         <v>0</v>
       </c>
     </row>
@@ -1874,10 +2044,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1891,10 +2061,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
